--- a/data/trans_orig/P0801-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>430613</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>416671</v>
+        <v>416272</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>442608</v>
+        <v>441628</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9088968005498178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8794685217315145</v>
+        <v>0.8786262745327056</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9342130705701412</v>
+        <v>0.932144310300174</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>254</v>
@@ -765,19 +765,19 @@
         <v>261376</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>247586</v>
+        <v>247483</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>273266</v>
+        <v>272809</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8522755039706537</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8073098846876318</v>
+        <v>0.8069758015109562</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8910471855805933</v>
+        <v>0.8895560277340763</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>667</v>
@@ -786,19 +786,19 @@
         <v>691990</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>672624</v>
+        <v>673363</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>709825</v>
+        <v>708400</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8866474710437727</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8618334423907541</v>
+        <v>0.8627798620391898</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9094990709800619</v>
+        <v>0.9076737107453403</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>27677</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18766</v>
+        <v>19254</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38877</v>
+        <v>39042</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05841815944412333</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03960951759025234</v>
+        <v>0.04063918501977003</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08205812040453929</v>
+        <v>0.08240658971840621</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -836,19 +836,19 @@
         <v>33769</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23180</v>
+        <v>23165</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45396</v>
+        <v>45255</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1101104957268416</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07558275779546703</v>
+        <v>0.07553507273697359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1480254892714953</v>
+        <v>0.1475649923756013</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -857,19 +857,19 @@
         <v>61446</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46530</v>
+        <v>48207</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>78940</v>
+        <v>78418</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07873065478381351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05961879273468089</v>
+        <v>0.06176796930790843</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1011452534491225</v>
+        <v>0.1004766726851423</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>15485</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8560</v>
+        <v>8653</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26014</v>
+        <v>27060</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03268504000605883</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.018068226283217</v>
+        <v>0.01826290694209321</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0549073220334244</v>
+        <v>0.05711564931939896</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>11535</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6088</v>
+        <v>6075</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19491</v>
+        <v>20251</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03761400030250478</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01984987916130358</v>
+        <v>0.01980864463120063</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06355532402759961</v>
+        <v>0.06603297861219352</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -928,19 +928,19 @@
         <v>27021</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17566</v>
+        <v>17459</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38956</v>
+        <v>39503</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03462187417241374</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02250785717908187</v>
+        <v>0.02236992922612101</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04991392735043959</v>
+        <v>0.05061557173684673</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>347249</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>335093</v>
+        <v>335669</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>355319</v>
+        <v>354386</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9463530321243925</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9132233908475147</v>
+        <v>0.9147926703741338</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9683453670149745</v>
+        <v>0.9658032445202468</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>342</v>
@@ -1053,19 +1053,19 @@
         <v>350474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>339775</v>
+        <v>339376</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>358305</v>
+        <v>358249</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9424752789281936</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9137056203342652</v>
+        <v>0.9126328958207734</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9635347887023286</v>
+        <v>0.9633832781947237</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>674</v>
@@ -1074,19 +1074,19 @@
         <v>697723</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>683982</v>
+        <v>682470</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>709501</v>
+        <v>708494</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9444012155134699</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9258021155511809</v>
+        <v>0.9237562738824441</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9603440317113332</v>
+        <v>0.958980508071723</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>14369</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7834</v>
+        <v>8216</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24759</v>
+        <v>24949</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.039160667985596</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02134891999372443</v>
+        <v>0.0223897745717779</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06747640829103285</v>
+        <v>0.06799417719686784</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -1124,19 +1124,19 @@
         <v>13749</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8073</v>
+        <v>7627</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22896</v>
+        <v>21884</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03697281198185994</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02171074283467166</v>
+        <v>0.02051029559665001</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.061570458095721</v>
+        <v>0.0588502842803573</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -1145,19 +1145,19 @@
         <v>28118</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18852</v>
+        <v>19229</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40519</v>
+        <v>40211</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03805943913622398</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0255175685671475</v>
+        <v>0.0260269943807386</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05484507153371174</v>
+        <v>0.05442773351091313</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>5316</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1653</v>
+        <v>1670</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11634</v>
+        <v>12075</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01448629989001151</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004506196869914545</v>
+        <v>0.004551715184539151</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03170470715642228</v>
+        <v>0.03290854669306273</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1195,19 +1195,19 @@
         <v>7643</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3239</v>
+        <v>3112</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15320</v>
+        <v>14680</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02055190908994646</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008709532034496061</v>
+        <v>0.008367913011457295</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04119844114668463</v>
+        <v>0.03947535525291681</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1216,19 +1216,19 @@
         <v>12958</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6796</v>
+        <v>6878</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22410</v>
+        <v>23169</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01753934535030614</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009198834009790748</v>
+        <v>0.009309226985425204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03033337280465585</v>
+        <v>0.03136004118554343</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>479064</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>463496</v>
+        <v>461875</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>492893</v>
+        <v>493104</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8832475575468252</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8545450461722283</v>
+        <v>0.8515571631735319</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9087444552034648</v>
+        <v>0.9091325669829274</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>125</v>
@@ -1341,19 +1341,19 @@
         <v>127946</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>116011</v>
+        <v>116181</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>138299</v>
+        <v>138600</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7625721562791272</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6914398289816728</v>
+        <v>0.6924495510226427</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8242767460571609</v>
+        <v>0.8260693163694579</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>591</v>
@@ -1362,19 +1362,19 @@
         <v>607010</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>586977</v>
+        <v>586610</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>623803</v>
+        <v>625154</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.854737312871769</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.826528805116336</v>
+        <v>0.8260121082717262</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8783837512937827</v>
+        <v>0.8802870749785646</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>46812</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34819</v>
+        <v>35182</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61554</v>
+        <v>61540</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08630624576878979</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06419511138104252</v>
+        <v>0.06486497963380607</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1134870883908115</v>
+        <v>0.1134614109798527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1412,19 +1412,19 @@
         <v>29222</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19612</v>
+        <v>20627</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38924</v>
+        <v>40324</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1741686324870733</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1168880321431349</v>
+        <v>0.1229388526226963</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2319911297066806</v>
+        <v>0.2403353641876747</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -1433,19 +1433,19 @@
         <v>76034</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60230</v>
+        <v>62067</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92820</v>
+        <v>93939</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1070642305507571</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08481075745973628</v>
+        <v>0.0873979588588724</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.130701494457351</v>
+        <v>0.1322767046564713</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>16514</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9666</v>
+        <v>10171</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25681</v>
+        <v>27260</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0304461966843851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01782157274467412</v>
+        <v>0.01875202580490413</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04734763159427886</v>
+        <v>0.05025988601467404</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1483,19 +1483,19 @@
         <v>10614</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5331</v>
+        <v>5370</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18560</v>
+        <v>18938</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06325921123379948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03177606274986436</v>
+        <v>0.03200353747386598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1106204671414102</v>
+        <v>0.1128698341919146</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -1504,19 +1504,19 @@
         <v>27127</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18452</v>
+        <v>17779</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38529</v>
+        <v>38607</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03819845657747398</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02598242613613207</v>
+        <v>0.02503423025080677</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05425255919028655</v>
+        <v>0.05436234878078718</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>1057029</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1030925</v>
+        <v>1033358</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1079414</v>
+        <v>1079537</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8535894429377711</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8325100078123017</v>
+        <v>0.8344740679627485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8716663701421201</v>
+        <v>0.8717657098708662</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>563</v>
@@ -1629,19 +1629,19 @@
         <v>581787</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>559551</v>
+        <v>558223</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>600948</v>
+        <v>600902</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8145030478838701</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7833722905230979</v>
+        <v>0.7815124088708878</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8413284679875332</v>
+        <v>0.8412639593500638</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1598</v>
@@ -1650,19 +1650,19 @@
         <v>1638817</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1603871</v>
+        <v>1604455</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1669118</v>
+        <v>1668397</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8392912986759654</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8213944078410944</v>
+        <v>0.8216935864561357</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8548095703603519</v>
+        <v>0.8544400453952449</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>133196</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>112679</v>
+        <v>113726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>154799</v>
+        <v>153570</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1075609778848571</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09099206497328914</v>
+        <v>0.09183768034997028</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1250056081911294</v>
+        <v>0.1240136021222033</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>107</v>
@@ -1700,19 +1700,19 @@
         <v>108722</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>90631</v>
+        <v>90943</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>128262</v>
+        <v>130301</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1522109501156538</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1268838439617846</v>
+        <v>0.1273199437913133</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.179566462480902</v>
+        <v>0.1824215326370303</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>245</v>
@@ -1721,19 +1721,19 @@
         <v>241919</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>215811</v>
+        <v>215529</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>275448</v>
+        <v>272975</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1238943272091211</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1105236363656461</v>
+        <v>0.1103792809813677</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1410657324780115</v>
+        <v>0.1397993605896472</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>48109</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35325</v>
+        <v>36512</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>61874</v>
+        <v>63432</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03884957917737177</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02852632150521307</v>
+        <v>0.02948478992349124</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04996567506213806</v>
+        <v>0.0512237427769015</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -1771,19 +1771,19 @@
         <v>23776</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14915</v>
+        <v>15812</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33177</v>
+        <v>34440</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03328600200047607</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02088064418121937</v>
+        <v>0.02213680047255144</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04644825623448265</v>
+        <v>0.04821659126535828</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>75</v>
@@ -1792,19 +1792,19 @@
         <v>71884</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>56401</v>
+        <v>57206</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>89483</v>
+        <v>89424</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03681437411491348</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02888459927608705</v>
+        <v>0.02929722919617628</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04582693242960099</v>
+        <v>0.04579703166492467</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>300799</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>287852</v>
+        <v>286849</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>313662</v>
+        <v>312981</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8580652182033671</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8211333273825181</v>
+        <v>0.8182712244426376</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.894757765416399</v>
+        <v>0.8928148392411523</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>432</v>
@@ -1917,19 +1917,19 @@
         <v>455041</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>435255</v>
+        <v>433673</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>475225</v>
+        <v>471844</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8000685043930779</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7652803701383201</v>
+        <v>0.7624984313960775</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.835558191473046</v>
+        <v>0.829613536698448</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>720</v>
@@ -1938,19 +1938,19 @@
         <v>755840</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>731009</v>
+        <v>732212</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>779181</v>
+        <v>777547</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8221841319315266</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7951744755739837</v>
+        <v>0.7964824305379116</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8475747715354355</v>
+        <v>0.8457963485311819</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>36484</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25890</v>
+        <v>26023</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>48571</v>
+        <v>48480</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1040754726469156</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07385565584397585</v>
+        <v>0.07423400014531283</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1385541147640991</v>
+        <v>0.1382957563165667</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>76</v>
@@ -1988,19 +1988,19 @@
         <v>81028</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>64323</v>
+        <v>65297</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>98044</v>
+        <v>98236</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1424670505270041</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.113094200198805</v>
+        <v>0.1148066866055009</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1723839572114916</v>
+        <v>0.172722197458351</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>114</v>
@@ -2009,19 +2009,19 @@
         <v>117513</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>97568</v>
+        <v>97584</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>138594</v>
+        <v>137535</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1278273618062484</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1061316277666341</v>
+        <v>0.1061497793180578</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1507594903087688</v>
+        <v>0.1496071723596137</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>13272</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7760</v>
+        <v>7536</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22561</v>
+        <v>21269</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03785930914971723</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0221363781969168</v>
+        <v>0.02149696158540344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06435774424940476</v>
+        <v>0.06067301564238425</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -2059,19 +2059,19 @@
         <v>32683</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21785</v>
+        <v>22399</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44612</v>
+        <v>44709</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0574644450799181</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03830386189464323</v>
+        <v>0.03938275722653706</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07843764723114463</v>
+        <v>0.07860870776325987</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>45</v>
@@ -2080,19 +2080,19 @@
         <v>45955</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34323</v>
+        <v>34675</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59734</v>
+        <v>60510</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04998850626222495</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03733538954145152</v>
+        <v>0.03771822241919262</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06497700661710794</v>
+        <v>0.06582087916879389</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>290570</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>283876</v>
+        <v>284208</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>294534</v>
+        <v>295229</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9744099640068685</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9519608071062495</v>
+        <v>0.9530747681823126</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9877034614158944</v>
+        <v>0.9900345095340195</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>883</v>
@@ -2205,19 +2205,19 @@
         <v>878559</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>846266</v>
+        <v>845216</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>907771</v>
+        <v>910116</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7035449152221098</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6776848683715095</v>
+        <v>0.6768444745505495</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7269383082714768</v>
+        <v>0.7288155397220359</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1181</v>
@@ -2226,19 +2226,19 @@
         <v>1169128</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1134232</v>
+        <v>1133562</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1203789</v>
+        <v>1199120</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7557583444879187</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7332003511709881</v>
+        <v>0.7327677425355028</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7781643120362889</v>
+        <v>0.7751459746583433</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>4763</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1786</v>
+        <v>1805</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10477</v>
+        <v>10617</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01597319220310548</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005990048456804589</v>
+        <v>0.006053183646469883</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03513425191262241</v>
+        <v>0.0356027217361032</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>264</v>
@@ -2276,19 +2276,19 @@
         <v>273408</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>246136</v>
+        <v>245898</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>302375</v>
+        <v>302019</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.218943757757521</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1971040974495249</v>
+        <v>0.1969133674402882</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2421401638164635</v>
+        <v>0.2418553920409538</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>269</v>
@@ -2297,19 +2297,19 @@
         <v>278171</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>247055</v>
+        <v>251776</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>307442</v>
+        <v>312515</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1798180406701231</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1597032261593809</v>
+        <v>0.1627550729462653</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1987392738834032</v>
+        <v>0.2020189801725072</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>2868</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>884</v>
+        <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8246</v>
+        <v>7269</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009616843790026029</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00296563121760134</v>
+        <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02765156906923245</v>
+        <v>0.02437525240913119</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>91</v>
@@ -2347,19 +2347,19 @@
         <v>96793</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>79283</v>
+        <v>78790</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>118577</v>
+        <v>115959</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07751132702036913</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06348939077523996</v>
+        <v>0.06309424208648541</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09495544471900373</v>
+        <v>0.09285916499556718</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>94</v>
@@ -2368,19 +2368,19 @@
         <v>99661</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>81078</v>
+        <v>81395</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>120786</v>
+        <v>120175</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06442361484195817</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0524108943028379</v>
+        <v>0.05261608105371249</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07807943222773266</v>
+        <v>0.07768492352389104</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>2905325</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2868111</v>
+        <v>2869174</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2939149</v>
+        <v>2939150</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8884270036069677</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8770472652244991</v>
+        <v>0.8773722093773624</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8987701645379271</v>
+        <v>0.8987704107510862</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2599</v>
@@ -2493,19 +2493,19 @@
         <v>2655182</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2606330</v>
+        <v>2607973</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2702731</v>
+        <v>2703621</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7859930390332522</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.771531903385013</v>
+        <v>0.7720182230436089</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8000685574938998</v>
+        <v>0.8003320088881303</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5431</v>
@@ -2514,19 +2514,19 @@
         <v>5560507</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5495337</v>
+        <v>5499283</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5618234</v>
+        <v>5619500</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8363785240607857</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8265760989364888</v>
+        <v>0.827169595176352</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8450614366063531</v>
+        <v>0.8452519495295546</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>263302</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>235651</v>
+        <v>231951</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>296509</v>
+        <v>294555</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08051580803894008</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07206035094031164</v>
+        <v>0.07092895391077844</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09067035485357747</v>
+        <v>0.09007267514750068</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>523</v>
@@ -2564,19 +2564,19 @@
         <v>539899</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>500581</v>
+        <v>499586</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>583381</v>
+        <v>579421</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1598220067155631</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1481829871104669</v>
+        <v>0.1478886676557328</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1726939269817635</v>
+        <v>0.1715214629282474</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>794</v>
@@ -2585,19 +2585,19 @@
         <v>803201</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>755610</v>
+        <v>754540</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>861493</v>
+        <v>858419</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1208126673559018</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1136543675319083</v>
+        <v>0.1134933908719484</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1295806749072891</v>
+        <v>0.129118246225619</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>101563</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>82337</v>
+        <v>84114</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>123983</v>
+        <v>121912</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03105718835409227</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02517792037369017</v>
+        <v>0.02572138763883505</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03791307286109662</v>
+        <v>0.03727983736772227</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>174</v>
@@ -2635,19 +2635,19 @@
         <v>183043</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>158638</v>
+        <v>157843</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>212902</v>
+        <v>212441</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05418495425118464</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04696030407683262</v>
+        <v>0.04672513689302536</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06302373785532174</v>
+        <v>0.06288730764960503</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>278</v>
@@ -2656,19 +2656,19 @@
         <v>284606</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>253013</v>
+        <v>252425</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>315537</v>
+        <v>319342</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04280880858331245</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03805671058996233</v>
+        <v>0.03796820675897252</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04746115977721096</v>
+        <v>0.04803349695308805</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>388476</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>371195</v>
+        <v>371873</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>400003</v>
+        <v>401655</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8885324995695957</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8490057164556043</v>
+        <v>0.8505567791941999</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9148974345407973</v>
+        <v>0.9186760888040562</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>250</v>
@@ -3023,19 +3023,19 @@
         <v>277600</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>264723</v>
+        <v>264336</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>288849</v>
+        <v>287872</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.882800020660647</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8418506533173298</v>
+        <v>0.8406201447911772</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9185718319382423</v>
+        <v>0.9154676838109427</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>612</v>
@@ -3044,19 +3044,19 @@
         <v>666076</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>644014</v>
+        <v>644946</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>682637</v>
+        <v>681485</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8861343537207366</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8567828184947254</v>
+        <v>0.8580230156073362</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9081660233030086</v>
+        <v>0.9066343835385426</v>
       </c>
     </row>
     <row r="5">
@@ -3073,19 +3073,19 @@
         <v>41330</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30966</v>
+        <v>29477</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59698</v>
+        <v>56123</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09453008117065288</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0708271387472898</v>
+        <v>0.0674215613330115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1365436985097077</v>
+        <v>0.1283648069301133</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -3094,19 +3094,19 @@
         <v>29659</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19528</v>
+        <v>20477</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41890</v>
+        <v>43569</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09431832672392486</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06210239673819013</v>
+        <v>0.06512031603262651</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1332149386419931</v>
+        <v>0.1385534027332803</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -3115,19 +3115,19 @@
         <v>70988</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56051</v>
+        <v>56795</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>92354</v>
+        <v>89062</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09444149505364065</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07456924512804643</v>
+        <v>0.07555928928334098</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1228656731996811</v>
+        <v>0.1184861406666759</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>7405</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3083</v>
+        <v>3098</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16829</v>
+        <v>15700</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01693741925975143</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007052325225965989</v>
+        <v>0.007085233927334405</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03849071509492676</v>
+        <v>0.03590938977348973</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -3165,19 +3165,19 @@
         <v>7195</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3052</v>
+        <v>2985</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13720</v>
+        <v>14102</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02288165261542811</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009705201581242304</v>
+        <v>0.009491296256622317</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04363191596542527</v>
+        <v>0.04484660728055085</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -3186,19 +3186,19 @@
         <v>14600</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7806</v>
+        <v>8188</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24920</v>
+        <v>24776</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01942415122562274</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01038547480880096</v>
+        <v>0.01089292710389083</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03315336740257024</v>
+        <v>0.03296108160549954</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>368236</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>351284</v>
+        <v>352158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>381350</v>
+        <v>380842</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8792717738408448</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8387941042178797</v>
+        <v>0.8408787694891949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9105845570613583</v>
+        <v>0.9093725516127255</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>272</v>
@@ -3311,19 +3311,19 @@
         <v>301354</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>288876</v>
+        <v>287256</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>312052</v>
+        <v>311855</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.891551292561412</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8546363129558724</v>
+        <v>0.8498416064895901</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9232018214168735</v>
+        <v>0.9226172741736652</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>603</v>
@@ -3332,19 +3332,19 @@
         <v>669591</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>650130</v>
+        <v>647556</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>685922</v>
+        <v>686257</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8847561414790008</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8590422128623276</v>
+        <v>0.8556411910477976</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9063358170959949</v>
+        <v>0.9067787385193711</v>
       </c>
     </row>
     <row r="9">
@@ -3361,19 +3361,19 @@
         <v>37085</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25639</v>
+        <v>26465</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>51846</v>
+        <v>51068</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08855093427807852</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06122040425990088</v>
+        <v>0.06319282457264665</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1237983636040042</v>
+        <v>0.1219406651129497</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -3382,19 +3382,19 @@
         <v>24487</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15951</v>
+        <v>15587</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34647</v>
+        <v>36639</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07244574240162881</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04719096385807211</v>
+        <v>0.04611388032390996</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1025024185424131</v>
+        <v>0.108394720302025</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>55</v>
@@ -3403,19 +3403,19 @@
         <v>61572</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47867</v>
+        <v>47604</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>78411</v>
+        <v>81303</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08135791677116636</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06324917924632702</v>
+        <v>0.06290149602161402</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1036081218380834</v>
+        <v>0.1074293665118468</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>13476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7126</v>
+        <v>7187</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25368</v>
+        <v>24497</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03217729188107669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01701496340421705</v>
+        <v>0.01716196748527928</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06057255773812121</v>
+        <v>0.05849303346843256</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3453,19 +3453,19 @@
         <v>12169</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6194</v>
+        <v>6224</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22091</v>
+        <v>21209</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03600296503695923</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01832521211493566</v>
+        <v>0.01841408417073827</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06535616632942599</v>
+        <v>0.06274657023420986</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -3474,19 +3474,19 @@
         <v>25645</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16272</v>
+        <v>16557</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38651</v>
+        <v>40942</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03388594174983275</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02150141763507374</v>
+        <v>0.02187675242277919</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05107129758839286</v>
+        <v>0.05409837177698995</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>523031</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>501150</v>
+        <v>500046</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>542328</v>
+        <v>540727</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8309795244186974</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7962157904365547</v>
+        <v>0.7944613697263713</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8616386410941711</v>
+        <v>0.8590951944116061</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>185</v>
@@ -3599,19 +3599,19 @@
         <v>195337</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>180697</v>
+        <v>180423</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>209829</v>
+        <v>208932</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7509237377069591</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6946452398287065</v>
+        <v>0.6935909901003777</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8066325041088459</v>
+        <v>0.8031871418501437</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>684</v>
@@ -3620,19 +3620,19 @@
         <v>718368</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>693825</v>
+        <v>690581</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>741738</v>
+        <v>741349</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8075688102558732</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.779978109981651</v>
+        <v>0.7763316365287131</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8338409363771093</v>
+        <v>0.8334031349305602</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>69182</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54812</v>
+        <v>54055</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88266</v>
+        <v>87705</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1099153469198021</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08708387356378813</v>
+        <v>0.08588103475264997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1402344597620316</v>
+        <v>0.1393430524387617</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -3670,19 +3670,19 @@
         <v>38932</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27549</v>
+        <v>28165</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51911</v>
+        <v>52989</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1496626602567021</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1059061357249074</v>
+        <v>0.1082717440991406</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1995605366788355</v>
+        <v>0.2037032146861028</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -3691,19 +3691,19 @@
         <v>108114</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88216</v>
+        <v>87690</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131503</v>
+        <v>130059</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1215386539846733</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09916973266028935</v>
+        <v>0.09857871539194507</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1478315911472979</v>
+        <v>0.1462091608286045</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>37202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25702</v>
+        <v>25183</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52157</v>
+        <v>52117</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05910512866150059</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04083528266840177</v>
+        <v>0.04000985438689453</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08286640965753657</v>
+        <v>0.08280153568634069</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -3741,19 +3741,19 @@
         <v>25860</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17171</v>
+        <v>17288</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37358</v>
+        <v>37057</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09941360203633891</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06601078510013643</v>
+        <v>0.06645870793033518</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1436129188813742</v>
+        <v>0.1424543284866488</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -3762,19 +3762,19 @@
         <v>63062</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47309</v>
+        <v>48827</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>80794</v>
+        <v>83012</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07089253575945348</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05318305948579929</v>
+        <v>0.05488985264687981</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09082681602229904</v>
+        <v>0.09331998856797444</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>961247</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>934978</v>
+        <v>935498</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>986602</v>
+        <v>986611</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8293700483513966</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8067045636220603</v>
+        <v>0.8071529835083466</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8512464025299188</v>
+        <v>0.8512543515526898</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>601</v>
@@ -3887,19 +3887,19 @@
         <v>644758</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>624491</v>
+        <v>622783</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>666142</v>
+        <v>664403</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8409995371672692</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8145636290543846</v>
+        <v>0.8123363118866355</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.868891186778712</v>
+        <v>0.8666236175494655</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1501</v>
@@ -3908,19 +3908,19 @@
         <v>1606006</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1571343</v>
+        <v>1574444</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1637695</v>
+        <v>1638733</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8340000469844113</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8159994449672447</v>
+        <v>0.8176099233360274</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8504559600218652</v>
+        <v>0.850995243026784</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>123327</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>102539</v>
+        <v>102348</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>145675</v>
+        <v>147169</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1064072760404269</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08847144371993472</v>
+        <v>0.08830671507099193</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1256893880655843</v>
+        <v>0.1269781041976573</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -3958,19 +3958,19 @@
         <v>80905</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64090</v>
+        <v>63619</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>98182</v>
+        <v>99491</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1055296887063789</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08359708814665638</v>
+        <v>0.08298190620906477</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1280645124150064</v>
+        <v>0.129771963147689</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>188</v>
@@ -3979,19 +3979,19 @@
         <v>204232</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>176850</v>
+        <v>175759</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>231947</v>
+        <v>230041</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1060578859493124</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09183821655837759</v>
+        <v>0.09127162562118703</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1204499712408322</v>
+        <v>0.1194603263682518</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>74435</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>58400</v>
+        <v>58978</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>93207</v>
+        <v>91961</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0642226756081765</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05038756106153643</v>
+        <v>0.05088651946983998</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08041992191984194</v>
+        <v>0.07934408376213428</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -4029,19 +4029,19 @@
         <v>40994</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29559</v>
+        <v>30031</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56699</v>
+        <v>56642</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05347077412635198</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03855584777483603</v>
+        <v>0.03917109949578184</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07395614403750772</v>
+        <v>0.07388143437637307</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>105</v>
@@ -4050,19 +4050,19 @@
         <v>115428</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>95157</v>
+        <v>93901</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>138134</v>
+        <v>137597</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05994206706627635</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0494152941098677</v>
+        <v>0.04876263077913477</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07173296030203646</v>
+        <v>0.07145426714516512</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>422389</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>403756</v>
+        <v>405587</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>438296</v>
+        <v>439377</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8272471781111431</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7907550241548895</v>
+        <v>0.7943400601285572</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8584009711225478</v>
+        <v>0.8605180552388194</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>466</v>
@@ -4175,19 +4175,19 @@
         <v>506036</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>477954</v>
+        <v>478421</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>530814</v>
+        <v>530202</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6645064116225238</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6276294661872918</v>
+        <v>0.6282435306241823</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6970432454907408</v>
+        <v>0.6962397810572056</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>870</v>
@@ -4196,19 +4196,19 @@
         <v>928425</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>894050</v>
+        <v>897130</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>957357</v>
+        <v>960404</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7298264772910268</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7028046123475572</v>
+        <v>0.7052256461054133</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.752569330188626</v>
+        <v>0.7549645968088314</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>58729</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>46071</v>
+        <v>44215</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>75334</v>
+        <v>73372</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1150196648447222</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09022943348574765</v>
+        <v>0.08659455476324794</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1475405151411719</v>
+        <v>0.1436978264654279</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>146</v>
@@ -4246,19 +4246,19 @@
         <v>158155</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>137289</v>
+        <v>136572</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>180954</v>
+        <v>181979</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2076824284714658</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1802825415890905</v>
+        <v>0.1793407655639206</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2376215458032353</v>
+        <v>0.2389673426367596</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>201</v>
@@ -4267,19 +4267,19 @@
         <v>216883</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>194702</v>
+        <v>192882</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>247286</v>
+        <v>243987</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1704899171190804</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1530534617013774</v>
+        <v>0.1516227796464047</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1943895234978389</v>
+        <v>0.1917955572472768</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>29478</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19722</v>
+        <v>20694</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40410</v>
+        <v>40993</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05773315704413474</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03862540906235501</v>
+        <v>0.0405293333468609</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07914221603361347</v>
+        <v>0.08028475878635259</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>91</v>
@@ -4317,19 +4317,19 @@
         <v>97331</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79842</v>
+        <v>80062</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>118306</v>
+        <v>116353</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1278111599060104</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1048448916955621</v>
+        <v>0.1051341800151783</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1553551747653757</v>
+        <v>0.1527899906216263</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>119</v>
@@ -4338,19 +4338,19 @@
         <v>126809</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>107362</v>
+        <v>108070</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>151660</v>
+        <v>150599</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09968360558989275</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08439591762483806</v>
+        <v>0.08495267647894095</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1192187178636249</v>
+        <v>0.1183843430485934</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>257142</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>248941</v>
+        <v>249620</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>262181</v>
+        <v>262384</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9635047229727115</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9327770933993228</v>
+        <v>0.9353180840877633</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9823839887026531</v>
+        <v>0.9831470851062981</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>690</v>
@@ -4463,19 +4463,19 @@
         <v>727755</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>696405</v>
+        <v>694161</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>757995</v>
+        <v>759100</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6560188185788913</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.627758747145032</v>
+        <v>0.6257362076784889</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6832781473024797</v>
+        <v>0.6842743864720617</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>946</v>
@@ -4484,19 +4484,19 @@
         <v>984897</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>952734</v>
+        <v>950360</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1019670</v>
+        <v>1017370</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.71564710797326</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6922769502311166</v>
+        <v>0.6905514217860675</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7409138202930586</v>
+        <v>0.739242849255984</v>
       </c>
     </row>
     <row r="25">
@@ -4513,19 +4513,19 @@
         <v>4983</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1819</v>
+        <v>1809</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11009</v>
+        <v>10819</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01867142606923955</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006814673085255268</v>
+        <v>0.006779206939046566</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04125087335397282</v>
+        <v>0.04053794375127654</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>229</v>
@@ -4534,19 +4534,19 @@
         <v>244642</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>219844</v>
+        <v>213452</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>273171</v>
+        <v>272229</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2205274590412657</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1981731839045145</v>
+        <v>0.1924112274473961</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2462435790478701</v>
+        <v>0.2453951411703094</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>234</v>
@@ -4555,19 +4555,19 @@
         <v>249625</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>223263</v>
+        <v>223291</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>277977</v>
+        <v>278094</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1813831282668723</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.16222797952395</v>
+        <v>0.1622478267369852</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2019838531854657</v>
+        <v>0.2020687171293841</v>
       </c>
     </row>
     <row r="26">
@@ -4584,19 +4584,19 @@
         <v>4757</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1730</v>
+        <v>1766</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13251</v>
+        <v>11490</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01782385095804896</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006481182492238484</v>
+        <v>0.006615538842655672</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04965095855802796</v>
+        <v>0.0430545547537499</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>125</v>
@@ -4605,19 +4605,19 @@
         <v>136954</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>116941</v>
+        <v>115507</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>160634</v>
+        <v>161913</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.123453722379843</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.105414206375529</v>
+        <v>0.1041214913443582</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1448003283411367</v>
+        <v>0.145952831292542</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>129</v>
@@ -4626,19 +4626,19 @@
         <v>141710</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>120281</v>
+        <v>118159</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>165954</v>
+        <v>166878</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1029697637598677</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0873984681158862</v>
+        <v>0.08585659816413883</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.120585768296701</v>
+        <v>0.1212573952951</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>2920522</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2873388</v>
+        <v>2877343</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2965826</v>
+        <v>2960416</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8534771605040274</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8397029848516367</v>
+        <v>0.8408586907022728</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8667164177638643</v>
+        <v>0.8651355544704172</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2464</v>
@@ -4751,19 +4751,19 @@
         <v>2652842</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2598191</v>
+        <v>2595642</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2705585</v>
+        <v>2707607</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7472530008641926</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7318591434035912</v>
+        <v>0.7311409741143624</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7621097374777852</v>
+        <v>0.7626792829705813</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5216</v>
@@ -4772,19 +4772,19 @@
         <v>5573364</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5499187</v>
+        <v>5506874</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5639016</v>
+        <v>5642618</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7993883527783043</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7887491849216721</v>
+        <v>0.7898517787731015</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8088048787557518</v>
+        <v>0.8093215493187602</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>334635</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>300723</v>
+        <v>299250</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>372621</v>
+        <v>372340</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09779201486317698</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08788149058869602</v>
+        <v>0.08745112390466166</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1088927617904222</v>
+        <v>0.1088104718524288</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>532</v>
@@ -4822,19 +4822,19 @@
         <v>576780</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>530267</v>
+        <v>532540</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>623321</v>
+        <v>622561</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1624675539392533</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1493657656072521</v>
+        <v>0.1500060162440151</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1755773047062172</v>
+        <v>0.1753631665528153</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>836</v>
@@ -4843,19 +4843,19 @@
         <v>911416</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>854077</v>
+        <v>853121</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>975395</v>
+        <v>970731</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1307244740090484</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1225003772936117</v>
+        <v>0.1223633323500894</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1399010191198043</v>
+        <v>0.1392320622805402</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>166752</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>141816</v>
+        <v>142185</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>199328</v>
+        <v>196500</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04873082463279557</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04144341160292805</v>
+        <v>0.04155128670885571</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05825051259518255</v>
+        <v>0.05742406352932589</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>294</v>
@@ -4893,19 +4893,19 @@
         <v>320503</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>285878</v>
+        <v>284896</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>355903</v>
+        <v>358067</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0902794451965542</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08052628108060637</v>
+        <v>0.08024947047463189</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1002508241034021</v>
+        <v>0.1008603343278911</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>443</v>
@@ -4914,19 +4914,19 @@
         <v>487256</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>444348</v>
+        <v>446545</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>528745</v>
+        <v>534453</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06988717321264733</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06373287385641022</v>
+        <v>0.06404808328663555</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07583792605928422</v>
+        <v>0.0766567320549616</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>386161</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>371908</v>
+        <v>372814</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>399510</v>
+        <v>397691</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8999485361068117</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8667315166980195</v>
+        <v>0.8688439070284356</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9310587863402645</v>
+        <v>0.9268198659538057</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>296</v>
@@ -5281,19 +5281,19 @@
         <v>305592</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>290629</v>
+        <v>289719</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>317478</v>
+        <v>316314</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8805287170912396</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8374141130280733</v>
+        <v>0.8347926593571965</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9147779712465025</v>
+        <v>0.9114219113484229</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>653</v>
@@ -5302,19 +5302,19 @@
         <v>691753</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>671916</v>
+        <v>672090</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>707849</v>
+        <v>708561</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8912649437019073</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8657074793100743</v>
+        <v>0.8659311562022312</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9120037728917072</v>
+        <v>0.9129212505226793</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>30159</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19690</v>
+        <v>21128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43002</v>
+        <v>43999</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07028559739192901</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04588757340936713</v>
+        <v>0.04923858538679606</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1002163247259674</v>
+        <v>0.1025400804653023</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -5352,19 +5352,19 @@
         <v>24201</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16000</v>
+        <v>15663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36418</v>
+        <v>35250</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06973302465351862</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04610322206645565</v>
+        <v>0.04513087382126629</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1049347582320778</v>
+        <v>0.1015688435684768</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -5373,19 +5373,19 @@
         <v>54360</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41076</v>
+        <v>41115</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>69847</v>
+        <v>70400</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07003851391341821</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05292335320100026</v>
+        <v>0.05297327066151334</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08999195357302971</v>
+        <v>0.09070485727642566</v>
       </c>
     </row>
     <row r="6">
@@ -5402,19 +5402,19 @@
         <v>12772</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7091</v>
+        <v>6662</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20833</v>
+        <v>21119</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0297658665012593</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01652547695125349</v>
+        <v>0.01552559272334278</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04855186634250303</v>
+        <v>0.04921835622538297</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -5423,19 +5423,19 @@
         <v>17262</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10167</v>
+        <v>9839</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29796</v>
+        <v>29222</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04973825825524177</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0292948821752802</v>
+        <v>0.02834959481833756</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08585453134087992</v>
+        <v>0.08420102956483683</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -5444,19 +5444,19 @@
         <v>30034</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20166</v>
+        <v>19837</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44312</v>
+        <v>44300</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0386965423846744</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02598242830523809</v>
+        <v>0.02555793507079156</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05709164730287908</v>
+        <v>0.05707694942416155</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>340033</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>326162</v>
+        <v>325415</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>351206</v>
+        <v>350688</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.901400952441854</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8646305254999657</v>
+        <v>0.8626498187632906</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9310202072587793</v>
+        <v>0.9296470076709487</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>318</v>
@@ -5569,19 +5569,19 @@
         <v>333802</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>319373</v>
+        <v>320371</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>344768</v>
+        <v>345541</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8966590666071227</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8579006491930488</v>
+        <v>0.8605804528705252</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9261167979167437</v>
+        <v>0.9281936429987965</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>636</v>
@@ -5590,19 +5590,19 @@
         <v>673835</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>655575</v>
+        <v>655183</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>689831</v>
+        <v>691505</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.899045679969816</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8746832468892396</v>
+        <v>0.8741605562767648</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9203879593611523</v>
+        <v>0.9226223419300915</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>24827</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15559</v>
+        <v>16200</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36740</v>
+        <v>36983</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06581524547673216</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04124691526446717</v>
+        <v>0.04294462787563333</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09739546857763286</v>
+        <v>0.09803965583939878</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -5640,19 +5640,19 @@
         <v>25362</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15768</v>
+        <v>16555</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37939</v>
+        <v>37149</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06812616129327294</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0423547138112907</v>
+        <v>0.04446905847448034</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1019104572733778</v>
+        <v>0.09979052762650949</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>45</v>
@@ -5661,19 +5661,19 @@
         <v>50189</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>35397</v>
+        <v>37259</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>66938</v>
+        <v>67646</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06696306653307862</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04722790560055042</v>
+        <v>0.04971137199471624</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08930998786341465</v>
+        <v>0.0902554028354224</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>12367</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6998</v>
+        <v>6639</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21057</v>
+        <v>20569</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0327838020814138</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01855001920678775</v>
+        <v>0.01759981086228499</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05581927577860032</v>
+        <v>0.05452692071140296</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -5711,19 +5711,19 @@
         <v>13110</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6590</v>
+        <v>6666</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21466</v>
+        <v>21624</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0352147720996044</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01770242127262776</v>
+        <v>0.01790725827069786</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05766191596438019</v>
+        <v>0.05808768383962718</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -5732,19 +5732,19 @@
         <v>25476</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17045</v>
+        <v>16307</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36012</v>
+        <v>36532</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03399125349710534</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0227419408046986</v>
+        <v>0.02175722621508149</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04804852422715936</v>
+        <v>0.04874123193342146</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>444941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>428161</v>
+        <v>428971</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>460161</v>
+        <v>460400</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8525171635019833</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8203660033753876</v>
+        <v>0.821919323393874</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8816790239296587</v>
+        <v>0.882137765944445</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>120</v>
@@ -5857,19 +5857,19 @@
         <v>126582</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114110</v>
+        <v>114128</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>138247</v>
+        <v>137416</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7619750613881482</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6868996703315444</v>
+        <v>0.6870085446704121</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.832196805774755</v>
+        <v>0.827195514489267</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>544</v>
@@ -5878,19 +5878,19 @@
         <v>571521</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>552676</v>
+        <v>550874</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>591897</v>
+        <v>591735</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8306562476823085</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.803266128073425</v>
+        <v>0.8006476118716719</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8602697827106348</v>
+        <v>0.8600343848199213</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>50315</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37668</v>
+        <v>36945</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65241</v>
+        <v>63796</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09640430608430918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07217320995204914</v>
+        <v>0.07078841055276548</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.125003146727109</v>
+        <v>0.1222345547934586</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -5928,19 +5928,19 @@
         <v>24708</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15235</v>
+        <v>15943</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35243</v>
+        <v>36936</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1487353455334589</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09171166909722152</v>
+        <v>0.0959708221442724</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2121505389882254</v>
+        <v>0.222339359122678</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -5949,19 +5949,19 @@
         <v>75023</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60738</v>
+        <v>58900</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92753</v>
+        <v>93292</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1090393611741019</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08827742438019039</v>
+        <v>0.08560551155037351</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1348079018937679</v>
+        <v>0.1355923775239019</v>
       </c>
     </row>
     <row r="14">
@@ -5978,19 +5978,19 @@
         <v>26659</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17506</v>
+        <v>18208</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37316</v>
+        <v>38028</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05107853041370754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03354241744972056</v>
+        <v>0.03488649239754175</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07149916032725254</v>
+        <v>0.07286313562072255</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -5999,19 +5999,19 @@
         <v>14833</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8122</v>
+        <v>8223</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23634</v>
+        <v>24377</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08928959307839292</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04889276172765578</v>
+        <v>0.04949843781698793</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1422657590244475</v>
+        <v>0.1467411976164707</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>41</v>
@@ -6020,19 +6020,19 @@
         <v>41492</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28911</v>
+        <v>29862</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54137</v>
+        <v>54905</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06030439114358963</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04201902197403354</v>
+        <v>0.04340109534524004</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07868308795884048</v>
+        <v>0.07979961380560324</v>
       </c>
     </row>
     <row r="15">
@@ -6124,19 +6124,19 @@
         <v>968429</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>943636</v>
+        <v>941848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>992341</v>
+        <v>992553</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8423775800234057</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8208116352878883</v>
+        <v>0.8192565445636713</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8631769610946587</v>
+        <v>0.86336159389004</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>677</v>
@@ -6145,19 +6145,19 @@
         <v>688835</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>664939</v>
+        <v>664385</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>709789</v>
+        <v>710666</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8340659189776712</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8051319861186201</v>
+        <v>0.8044608920475521</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8594379207151168</v>
+        <v>0.860499812367824</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1603</v>
@@ -6166,19 +6166,19 @@
         <v>1657264</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1622453</v>
+        <v>1622297</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1690672</v>
+        <v>1691888</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8389028390678418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.821281410805801</v>
+        <v>0.8212022788581437</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8558138353525313</v>
+        <v>0.856429492941155</v>
       </c>
     </row>
     <row r="17">
@@ -6195,19 +6195,19 @@
         <v>124481</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>104198</v>
+        <v>104901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>147725</v>
+        <v>147854</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1082786186392784</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09063582370008615</v>
+        <v>0.09124711452817164</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1284966576908634</v>
+        <v>0.1286093394666501</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -6216,19 +6216,19 @@
         <v>82036</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65807</v>
+        <v>64655</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>101351</v>
+        <v>102293</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09933269214577545</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0796809633272986</v>
+        <v>0.07828632059149052</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1227189311039659</v>
+        <v>0.1238600171114</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>194</v>
@@ -6237,19 +6237,19 @@
         <v>206518</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>182112</v>
+        <v>180294</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>235832</v>
+        <v>236321</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1045387191172218</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09218474962700064</v>
+        <v>0.09126439347528142</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1193776870347878</v>
+        <v>0.1196250402643598</v>
       </c>
     </row>
     <row r="18">
@@ -6266,19 +6266,19 @@
         <v>56728</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>43655</v>
+        <v>43438</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>72696</v>
+        <v>72749</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04934380133731586</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03797324659179095</v>
+        <v>0.03778403373345181</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06323364429356364</v>
+        <v>0.06327970910057905</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>48</v>
@@ -6287,19 +6287,19 @@
         <v>55004</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40068</v>
+        <v>39627</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>70401</v>
+        <v>71230</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06660138887655326</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04851557411909113</v>
+        <v>0.04798206926026728</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08524439977075977</v>
+        <v>0.08624799778163109</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>104</v>
@@ -6308,19 +6308,19 @@
         <v>111732</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>92505</v>
+        <v>90377</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>136306</v>
+        <v>133574</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05655844181493639</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04682583912921904</v>
+        <v>0.04574838724813136</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06899769261102537</v>
+        <v>0.06761473223423797</v>
       </c>
     </row>
     <row r="19">
@@ -6412,19 +6412,19 @@
         <v>494933</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>474198</v>
+        <v>474916</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>513665</v>
+        <v>512964</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7973705549037027</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7639658589030236</v>
+        <v>0.7651226059191206</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8275498225568718</v>
+        <v>0.8264206226261183</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>508</v>
@@ -6433,19 +6433,19 @@
         <v>525564</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>500942</v>
+        <v>500171</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>550627</v>
+        <v>550363</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7119103566429855</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6785581919080342</v>
+        <v>0.6775141729753302</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7458608332287499</v>
+        <v>0.7455035065675419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>973</v>
@@ -6454,19 +6454,19 @@
         <v>1020496</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>986210</v>
+        <v>985991</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1050845</v>
+        <v>1051322</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7509446457834846</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.725714768328621</v>
+        <v>0.7255533376297826</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.773277140692227</v>
+        <v>0.7736279340899018</v>
       </c>
     </row>
     <row r="21">
@@ -6483,19 +6483,19 @@
         <v>90106</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>73600</v>
+        <v>75204</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>107444</v>
+        <v>110754</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1451668611533144</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1185749600648905</v>
+        <v>0.12115879210569</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.173099894153881</v>
+        <v>0.1784318601342152</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>126</v>
@@ -6504,19 +6504,19 @@
         <v>138601</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>118341</v>
+        <v>117655</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>161961</v>
+        <v>161398</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1877439254984568</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1603007383751666</v>
+        <v>0.1593717410890799</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2193868562995049</v>
+        <v>0.2186244502409134</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>220</v>
@@ -6525,19 +6525,19 @@
         <v>228707</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>201903</v>
+        <v>201952</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>256242</v>
+        <v>258751</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1682966801816171</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1485725117787398</v>
+        <v>0.1486092064247483</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1885587898475338</v>
+        <v>0.19040524450265</v>
       </c>
     </row>
     <row r="22">
@@ -6554,19 +6554,19 @@
         <v>35667</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26014</v>
+        <v>25294</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49389</v>
+        <v>48443</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05746258394298294</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04190962241344266</v>
+        <v>0.04075004514898389</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0795688804427824</v>
+        <v>0.0780449164523831</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -6575,19 +6575,19 @@
         <v>74080</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57625</v>
+        <v>57342</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91784</v>
+        <v>91492</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1003457178585577</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07805704293485867</v>
+        <v>0.07767353054988596</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1243271612454972</v>
+        <v>0.1239323387357192</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>103</v>
@@ -6596,19 +6596,19 @@
         <v>109747</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>90873</v>
+        <v>89893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>130922</v>
+        <v>135228</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08075867403489827</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06687007365898175</v>
+        <v>0.06614875286691003</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09634051404026936</v>
+        <v>0.09950898006985569</v>
       </c>
     </row>
     <row r="23">
@@ -6700,19 +6700,19 @@
         <v>280799</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>274350</v>
+        <v>274403</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>285005</v>
+        <v>284973</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9778991917472428</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.955440151245661</v>
+        <v>0.9556251319692388</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9925482888565333</v>
+        <v>0.9924348320096524</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>715</v>
@@ -6721,19 +6721,19 @@
         <v>754765</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>719831</v>
+        <v>724819</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>782972</v>
+        <v>789506</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6975490334705104</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6652630263587013</v>
+        <v>0.669872523948609</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.723617010064164</v>
+        <v>0.7296560803364638</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>981</v>
@@ -6742,19 +6742,19 @@
         <v>1035564</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1001983</v>
+        <v>1000938</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1072042</v>
+        <v>1068714</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7563446450860164</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7318179456401903</v>
+        <v>0.7310542299389745</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7829864449153665</v>
+        <v>0.7805560347192442</v>
       </c>
     </row>
     <row r="25">
@@ -6771,19 +6771,19 @@
         <v>4263</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1074</v>
+        <v>1015</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9823</v>
+        <v>9959</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01484700618783398</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003739606114194435</v>
+        <v>0.003533683922265432</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03420901178299223</v>
+        <v>0.03468429126148224</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>177</v>
@@ -6792,19 +6792,19 @@
         <v>203132</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>178304</v>
+        <v>177787</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>229467</v>
+        <v>229274</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.187733083840942</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1647869657079116</v>
+        <v>0.1643093845155103</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2120718068204159</v>
+        <v>0.2118931423538531</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>181</v>
@@ -6813,19 +6813,19 @@
         <v>207395</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>177583</v>
+        <v>182489</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>234688</v>
+        <v>235005</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1514750601683227</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1297012837841321</v>
+        <v>0.1332840845176109</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1714086941598301</v>
+        <v>0.171640307315429</v>
       </c>
     </row>
     <row r="26">
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7512</v>
+        <v>7480</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00725380206492317</v>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02616037527883883</v>
+        <v>0.02605042681208066</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>100</v>
@@ -6863,19 +6863,19 @@
         <v>124128</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101066</v>
+        <v>101491</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>147487</v>
+        <v>146990</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1147178826885475</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09340413711016179</v>
+        <v>0.09379704756974228</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1363062496715164</v>
+        <v>0.1358475996199213</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>102</v>
@@ -6884,19 +6884,19 @@
         <v>126210</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>104320</v>
+        <v>103171</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>150312</v>
+        <v>152071</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09218029474566096</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0761921794638255</v>
+        <v>0.07535279355966151</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1097830789152597</v>
+        <v>0.1110683356703714</v>
       </c>
     </row>
     <row r="27">
@@ -6988,19 +6988,19 @@
         <v>2915295</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2876888</v>
+        <v>2873694</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2954371</v>
+        <v>2959260</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8610556297237117</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8497118303615588</v>
+        <v>0.8487683948346333</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8725969167937053</v>
+        <v>0.874040921328792</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2634</v>
@@ -7009,19 +7009,19 @@
         <v>2735140</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2681979</v>
+        <v>2689667</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2784459</v>
+        <v>2790497</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7744769068467716</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7594239545233142</v>
+        <v>0.761600898616645</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7884420724860731</v>
+        <v>0.7901519387958787</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5390</v>
@@ -7030,19 +7030,19 @@
         <v>5650435</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5581033</v>
+        <v>5582719</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5718099</v>
+        <v>5717488</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8168533741201962</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8068203634010075</v>
+        <v>0.8070640984392712</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8266352947108035</v>
+        <v>0.8265470032180767</v>
       </c>
     </row>
     <row r="29">
@@ -7059,19 +7059,19 @@
         <v>324151</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>291258</v>
+        <v>290208</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>357633</v>
+        <v>358659</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09574070668569143</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0860254003548943</v>
+        <v>0.08571538769932009</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1056296316807093</v>
+        <v>0.1059329249656603</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>440</v>
@@ -7080,19 +7080,19 @@
         <v>498040</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>456010</v>
+        <v>452559</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>540766</v>
+        <v>538629</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1410241339527799</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1291229101542132</v>
+        <v>0.1281456264280207</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1531222957317298</v>
+        <v>0.152517037241609</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>759</v>
@@ -7101,19 +7101,19 @@
         <v>822192</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>765007</v>
+        <v>769587</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>883136</v>
+        <v>881589</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1188598930186672</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1105929832815622</v>
+        <v>0.1112551268823006</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1276702473540329</v>
+        <v>0.1274466655744697</v>
       </c>
     </row>
     <row r="30">
@@ -7130,19 +7130,19 @@
         <v>146276</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>125058</v>
+        <v>122943</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>171094</v>
+        <v>170317</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04320366359059685</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03693694909239188</v>
+        <v>0.03631226521642064</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05053404114129043</v>
+        <v>0.05030461273316376</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>252</v>
@@ -7151,19 +7151,19 @@
         <v>298416</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>265019</v>
+        <v>264169</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>334360</v>
+        <v>333065</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08449895920044841</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07504227382505316</v>
+        <v>0.07480153994212817</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.094676722101038</v>
+        <v>0.09430993072245869</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>401</v>
@@ -7172,19 +7172,19 @@
         <v>444692</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>405507</v>
+        <v>401799</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>490105</v>
+        <v>486053</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06428673286113658</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05862204000594477</v>
+        <v>0.05808592394268759</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07085182015253844</v>
+        <v>0.07026610801942529</v>
       </c>
     </row>
     <row r="31">
@@ -7518,19 +7518,19 @@
         <v>509404</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>497908</v>
+        <v>496121</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>519931</v>
+        <v>519521</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9251495833942565</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9042719178098065</v>
+        <v>0.90102576834014</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9442680842004066</v>
+        <v>0.9435233616239661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>591</v>
@@ -7539,19 +7539,19 @@
         <v>426187</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>413339</v>
+        <v>412309</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>437482</v>
+        <v>437163</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8725983575133934</v>
+        <v>0.8725983575133933</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8462932655486028</v>
+        <v>0.8441852225387385</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8957257610855462</v>
+        <v>0.8950727586342265</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1093</v>
@@ -7560,19 +7560,19 @@
         <v>935591</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>917498</v>
+        <v>916786</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>951156</v>
+        <v>951350</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9004471092303226</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8830336008259806</v>
+        <v>0.8823486105798986</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9154274893283099</v>
+        <v>0.9156142420593927</v>
       </c>
     </row>
     <row r="5">
@@ -7589,19 +7589,19 @@
         <v>25377</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17518</v>
+        <v>18326</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35438</v>
+        <v>37188</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04608890231328038</v>
+        <v>0.04608890231328039</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03181444360249231</v>
+        <v>0.03328172582050774</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06435998068326788</v>
+        <v>0.0675377769214431</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -7610,19 +7610,19 @@
         <v>43678</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34346</v>
+        <v>34031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55077</v>
+        <v>55083</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08942824278639123</v>
+        <v>0.08942824278639122</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07032218808057807</v>
+        <v>0.06967613383907552</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.112768541962133</v>
+        <v>0.1127803200648539</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>101</v>
@@ -7631,19 +7631,19 @@
         <v>69055</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56845</v>
+        <v>55376</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>83434</v>
+        <v>84047</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06646119468845821</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05470971643785719</v>
+        <v>0.05329588343394875</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08030014496305321</v>
+        <v>0.08089028107285319</v>
       </c>
     </row>
     <row r="6">
@@ -7660,19 +7660,19 @@
         <v>15837</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10073</v>
+        <v>9924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24393</v>
+        <v>24268</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02876151429246325</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01829329344826148</v>
+        <v>0.0180226312591528</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04430174209747062</v>
+        <v>0.04407492256474791</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -7681,19 +7681,19 @@
         <v>18547</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11938</v>
+        <v>12348</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28282</v>
+        <v>27080</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03797339970021543</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02444229563758581</v>
+        <v>0.02528281905802829</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05790668737194293</v>
+        <v>0.05544431137941101</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -7702,19 +7702,19 @@
         <v>34383</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25260</v>
+        <v>25456</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>46109</v>
+        <v>45018</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.03309169608121928</v>
+        <v>0.03309169608121927</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02431095275301091</v>
+        <v>0.02449976623606885</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04437717800723318</v>
+        <v>0.04332693745068485</v>
       </c>
     </row>
     <row r="7">
@@ -7806,19 +7806,19 @@
         <v>427459</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>411739</v>
+        <v>409579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>440755</v>
+        <v>439827</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8846191023406462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8520873062402382</v>
+        <v>0.8476173247603225</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9121352991559988</v>
+        <v>0.9102150685192839</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>494</v>
@@ -7827,19 +7827,19 @@
         <v>361905</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>349321</v>
+        <v>348041</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>373524</v>
+        <v>372123</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8552776310864595</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8255392271242207</v>
+        <v>0.8225139555042361</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8827360884103046</v>
+        <v>0.8794259122117659</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>912</v>
@@ -7848,19 +7848,19 @@
         <v>789363</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>770972</v>
+        <v>767418</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>807341</v>
+        <v>806663</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8709206796736383</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8506296435762978</v>
+        <v>0.8467077285126917</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8907562100758968</v>
+        <v>0.8900072284073581</v>
       </c>
     </row>
     <row r="9">
@@ -7877,19 +7877,19 @@
         <v>43760</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>32093</v>
+        <v>33220</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>58283</v>
+        <v>60463</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09056076547259391</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06641631777575421</v>
+        <v>0.06874765022672837</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1206166963411471</v>
+        <v>0.125126757791977</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>67</v>
@@ -7898,19 +7898,19 @@
         <v>42647</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>32548</v>
+        <v>33348</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53043</v>
+        <v>54517</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1007861606380321</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0769196371923051</v>
+        <v>0.07880992913439783</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1253543505119555</v>
+        <v>0.1288384957508557</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>116</v>
@@ -7919,19 +7919,19 @@
         <v>86407</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>71913</v>
+        <v>71741</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>104698</v>
+        <v>105000</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.09533461555324949</v>
+        <v>0.09533461555324947</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07934356830069762</v>
+        <v>0.07915365503643669</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1155155829311799</v>
+        <v>0.1158489242840105</v>
       </c>
     </row>
     <row r="10">
@@ -7948,19 +7948,19 @@
         <v>11993</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6813</v>
+        <v>6416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20232</v>
+        <v>19503</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02482013218675991</v>
+        <v>0.0248201321867599</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01409889230166907</v>
+        <v>0.01327830558107513</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04187062313659256</v>
+        <v>0.04036072739946569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -7969,19 +7969,19 @@
         <v>18591</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12527</v>
+        <v>13493</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25111</v>
+        <v>26813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04393620827550829</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02960582702664553</v>
+        <v>0.03188831353289058</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05934478403660894</v>
+        <v>0.06336549380351716</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -7990,19 +7990,19 @@
         <v>30585</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22439</v>
+        <v>22778</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41736</v>
+        <v>41587</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03374470477311223</v>
+        <v>0.03374470477311224</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02475727637483709</v>
+        <v>0.02513170904045003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0460483838663102</v>
+        <v>0.04588408302195383</v>
       </c>
     </row>
     <row r="11">
@@ -8094,19 +8094,19 @@
         <v>394689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>378489</v>
+        <v>377280</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>410417</v>
+        <v>408928</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8368937340496528</v>
+        <v>0.8368937340496526</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8025437836267753</v>
+        <v>0.7999792407140595</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.87024337314607</v>
+        <v>0.8670856276080755</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>204</v>
@@ -8115,19 +8115,19 @@
         <v>136683</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>126343</v>
+        <v>125580</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>145841</v>
+        <v>146125</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7289887125883829</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6738401881966641</v>
+        <v>0.6697684424592244</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7778328247365469</v>
+        <v>0.7793437515108529</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>602</v>
@@ -8136,19 +8136,19 @@
         <v>531372</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>512141</v>
+        <v>510414</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>549074</v>
+        <v>547894</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8061979029248125</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7770195972125762</v>
+        <v>0.7743995923181678</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8330550194573009</v>
+        <v>0.8312647124500188</v>
       </c>
     </row>
     <row r="13">
@@ -8165,19 +8165,19 @@
         <v>58103</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45516</v>
+        <v>46084</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72312</v>
+        <v>74886</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1232003658809707</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0965117439560768</v>
+        <v>0.09771681765252453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1533304299137995</v>
+        <v>0.1587867349381455</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -8186,19 +8186,19 @@
         <v>32626</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24883</v>
+        <v>24990</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40853</v>
+        <v>41567</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1740106026430261</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1327103703407472</v>
+        <v>0.1332816818611837</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.217883727115607</v>
+        <v>0.2216933846295708</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -8207,19 +8207,19 @@
         <v>90729</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76548</v>
+        <v>76495</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>109279</v>
+        <v>108096</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1376543961562995</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1161379880468724</v>
+        <v>0.1160581211047145</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1657979466466773</v>
+        <v>0.1640038111840299</v>
       </c>
     </row>
     <row r="14">
@@ -8236,19 +8236,19 @@
         <v>18820</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11442</v>
+        <v>12056</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28970</v>
+        <v>30222</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03990590006937669</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02426207491297307</v>
+        <v>0.02556336954372946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06142698049777943</v>
+        <v>0.06408259167601574</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -8257,19 +8257,19 @@
         <v>18187</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12570</v>
+        <v>11839</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25758</v>
+        <v>25357</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09700068476859089</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0670415215976535</v>
+        <v>0.06314317247667685</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1373786651347663</v>
+        <v>0.1352384630284235</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>51</v>
@@ -8278,19 +8278,19 @@
         <v>37007</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26528</v>
+        <v>27819</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48811</v>
+        <v>49915</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05614770091888804</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04024857070478122</v>
+        <v>0.04220707410318926</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07405587724790925</v>
+        <v>0.07573153332755325</v>
       </c>
     </row>
     <row r="15">
@@ -8382,19 +8382,19 @@
         <v>923228</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>897175</v>
+        <v>894693</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>948975</v>
+        <v>948850</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8156857642873175</v>
+        <v>0.8156857642873176</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7926677208710061</v>
+        <v>0.7904746761761031</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8384335359104108</v>
+        <v>0.8383225421890345</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>991</v>
@@ -8403,19 +8403,19 @@
         <v>723806</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>707147</v>
+        <v>705711</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>741080</v>
+        <v>741385</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8404513015149745</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8211075720537298</v>
+        <v>0.8194398032991528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8605092605992085</v>
+        <v>0.8608632828465264</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1870</v>
@@ -8424,19 +8424,19 @@
         <v>1647034</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1617012</v>
+        <v>1614070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1677952</v>
+        <v>1678327</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8263871107081356</v>
+        <v>0.8263871107081359</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8113238672457113</v>
+        <v>0.8098477036437841</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8418997384212594</v>
+        <v>0.8420881014105954</v>
       </c>
     </row>
     <row r="17">
@@ -8453,19 +8453,19 @@
         <v>145163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123387</v>
+        <v>123948</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>168621</v>
+        <v>167191</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1282537646649552</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.109014352712287</v>
+        <v>0.1095101848490788</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1489793989104219</v>
+        <v>0.1477161312700972</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>161</v>
@@ -8474,19 +8474,19 @@
         <v>93539</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79422</v>
+        <v>79103</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>107352</v>
+        <v>108447</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1086135880909331</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09222091339356014</v>
+        <v>0.09185145941012757</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1246521947855057</v>
+        <v>0.1259243665210952</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>323</v>
@@ -8495,19 +8495,19 @@
         <v>238702</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>212364</v>
+        <v>212913</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>266180</v>
+        <v>265518</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1197671192369718</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1065522126522364</v>
+        <v>0.1068273614594224</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1335537351296184</v>
+        <v>0.1332215288914204</v>
       </c>
     </row>
     <row r="18">
@@ -8524,19 +8524,19 @@
         <v>63452</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50344</v>
+        <v>50330</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80094</v>
+        <v>80118</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05606047104772715</v>
+        <v>0.05606047104772716</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04447998354615323</v>
+        <v>0.04446741871634713</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07076465249166355</v>
+        <v>0.07078521265108625</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>78</v>
@@ -8545,19 +8545,19 @@
         <v>43866</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>35224</v>
+        <v>34507</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>54463</v>
+        <v>54780</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.05093511039409249</v>
+        <v>0.05093511039409247</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04090093561926803</v>
+        <v>0.040067628551017</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06324014171994641</v>
+        <v>0.06360843355241776</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>155</v>
@@ -8566,19 +8566,19 @@
         <v>107318</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>89410</v>
+        <v>88790</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>124371</v>
+        <v>125685</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05384577005489249</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04486086006293465</v>
+        <v>0.0445496902425425</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06240246968228849</v>
+        <v>0.06306156915083705</v>
       </c>
     </row>
     <row r="19">
@@ -8670,19 +8670,19 @@
         <v>460726</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>438447</v>
+        <v>440041</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>478348</v>
+        <v>478093</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8111894055439562</v>
+        <v>0.811189405543956</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7719628579899246</v>
+        <v>0.774768318521834</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8422153662703685</v>
+        <v>0.8417664519646675</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>860</v>
@@ -8691,19 +8691,19 @@
         <v>593250</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>572522</v>
+        <v>571981</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>615185</v>
+        <v>612747</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7140273865311587</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6890797366803718</v>
+        <v>0.6884283387905654</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7404281646095111</v>
+        <v>0.7374937079947493</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1283</v>
@@ -8712,19 +8712,19 @@
         <v>1053976</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1027107</v>
+        <v>1026161</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1083831</v>
+        <v>1081458</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7534783104672516</v>
+        <v>0.7534783104672514</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7342700331255374</v>
+        <v>0.733593946758428</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7748217244688798</v>
+        <v>0.7731250882512187</v>
       </c>
     </row>
     <row r="21">
@@ -8741,19 +8741,19 @@
         <v>68797</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54775</v>
+        <v>52458</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>86546</v>
+        <v>84930</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1211287172033599</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09644181363034478</v>
+        <v>0.09236116732183539</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.15237922472009</v>
+        <v>0.1495339538722397</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>256</v>
@@ -8762,19 +8762,19 @@
         <v>143858</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>127063</v>
+        <v>128196</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>161549</v>
+        <v>160540</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.173145073626425</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1529318627288291</v>
+        <v>0.1542952717593681</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1944378137675907</v>
+        <v>0.193223681339814</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>330</v>
@@ -8783,19 +8783,19 @@
         <v>212654</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>190149</v>
+        <v>189593</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>234842</v>
+        <v>236168</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1520247496404779</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1359357618525794</v>
+        <v>0.1355383613925668</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1678866561681563</v>
+        <v>0.1688342214407335</v>
       </c>
     </row>
     <row r="22">
@@ -8812,19 +8812,19 @@
         <v>38441</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28405</v>
+        <v>28588</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52116</v>
+        <v>51771</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06768187725268397</v>
+        <v>0.06768187725268396</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05001191840458348</v>
+        <v>0.05033489054961608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09175989202638631</v>
+        <v>0.09115250459457815</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>174</v>
@@ -8833,19 +8833,19 @@
         <v>93743</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>80728</v>
+        <v>81150</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>107037</v>
+        <v>108629</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1128275398424163</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09716337370585812</v>
+        <v>0.09767120840384545</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1288288704586336</v>
+        <v>0.1307447793410707</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>224</v>
@@ -8854,19 +8854,19 @@
         <v>132184</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>115136</v>
+        <v>116637</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>151177</v>
+        <v>151963</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09449693989227061</v>
+        <v>0.09449693989227059</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08230962402020205</v>
+        <v>0.08338283421940575</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1080753391163859</v>
+        <v>0.1086368482853615</v>
       </c>
     </row>
     <row r="23">
@@ -8958,19 +8958,19 @@
         <v>233373</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>228388</v>
+        <v>228746</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>235754</v>
+        <v>235898</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9837517390223254</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9627343203533905</v>
+        <v>0.9642469743943896</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9937872010150185</v>
+        <v>0.9943937742880408</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>698</v>
@@ -8979,19 +8979,19 @@
         <v>581962</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>558071</v>
+        <v>557565</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>605686</v>
+        <v>604082</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.6892990308452788</v>
+        <v>0.6892990308452789</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6610020303372592</v>
+        <v>0.6604020752002047</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7173981440283971</v>
+        <v>0.7154986246874182</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>804</v>
@@ -9000,19 +9000,19 @@
         <v>815335</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>791314</v>
+        <v>789034</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>840755</v>
+        <v>842496</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7538869075163505</v>
+        <v>0.7538869075163506</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7316758614973278</v>
+        <v>0.7295672784263875</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7773906034282249</v>
+        <v>0.7790005832514928</v>
       </c>
     </row>
     <row r="25">
@@ -9029,19 +9029,19 @@
         <v>2674</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>535</v>
+        <v>661</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6810</v>
+        <v>7253</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01127175159417259</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002253399319767025</v>
+        <v>0.002785543774807195</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02870468766202806</v>
+        <v>0.03057312995841977</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>291</v>
@@ -9050,19 +9050,19 @@
         <v>163379</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>143945</v>
+        <v>144908</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>181915</v>
+        <v>182213</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1935121545351668</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1704944233275873</v>
+        <v>0.1716345156018323</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2154670764776533</v>
+        <v>0.2158208512155038</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>295</v>
@@ -9071,19 +9071,19 @@
         <v>166053</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>149630</v>
+        <v>145925</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>190191</v>
+        <v>187788</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1535379232145907</v>
+        <v>0.1535379232145908</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1383531236670886</v>
+        <v>0.1349270505909073</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1758569309014036</v>
+        <v>0.1736355610982202</v>
       </c>
     </row>
     <row r="26">
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4308</v>
+        <v>3918</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00497650938350196</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01815791827830359</v>
+        <v>0.0165142677108396</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>170</v>
@@ -9121,19 +9121,19 @@
         <v>98940</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>85640</v>
+        <v>84351</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>115731</v>
+        <v>115679</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1171888146195544</v>
+        <v>0.1171888146195545</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1014357870807168</v>
+        <v>0.09990829812506867</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1370762313685564</v>
+        <v>0.1370149196493107</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>172</v>
@@ -9142,19 +9142,19 @@
         <v>100121</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>84547</v>
+        <v>85972</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114466</v>
+        <v>115912</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0925751692690588</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07817526873052962</v>
+        <v>0.0794924898979012</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1058394847926044</v>
+        <v>0.1071763668156933</v>
       </c>
     </row>
     <row r="27">
@@ -9246,19 +9246,19 @@
         <v>2948879</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2906672</v>
+        <v>2906767</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2987302</v>
+        <v>2987055</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8566156786017833</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8443551232043517</v>
+        <v>0.8443827229660569</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8677770196030646</v>
+        <v>0.8677054845644605</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3838</v>
@@ -9267,19 +9267,19 @@
         <v>2823792</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2785503</v>
+        <v>2779315</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2863473</v>
+        <v>2862413</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7767501897923217</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7662178867856366</v>
+        <v>0.7645156276183186</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7876653227438798</v>
+        <v>0.7873736854239488</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6564</v>
@@ -9288,19 +9288,19 @@
         <v>5772671</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5718808</v>
+        <v>5708722</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5832520</v>
+        <v>5829914</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8155945116216015</v>
+        <v>0.8155945116216016</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8079844382831902</v>
+        <v>0.8065594387151346</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8240502200686041</v>
+        <v>0.8236821472809559</v>
       </c>
     </row>
     <row r="29">
@@ -9317,19 +9317,19 @@
         <v>343874</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>309634</v>
+        <v>311111</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>380576</v>
+        <v>378810</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09989145766919051</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08994521247047972</v>
+        <v>0.09037432156396603</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1105529377827706</v>
+        <v>0.1100399548989288</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>900</v>
@@ -9338,19 +9338,19 @@
         <v>519727</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>486023</v>
+        <v>490861</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>552072</v>
+        <v>556662</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1429629763129412</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.133692048783603</v>
+        <v>0.135022859627455</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1518602894980702</v>
+        <v>0.1531229992593437</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1289</v>
@@ -9359,19 +9359,19 @@
         <v>863601</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>817628</v>
+        <v>815261</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>911146</v>
+        <v>914207</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.122014204110905</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1155189964987125</v>
+        <v>0.1151844631756641</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1287316470866502</v>
+        <v>0.1291642127235501</v>
       </c>
     </row>
     <row r="30">
@@ -9388,19 +9388,19 @@
         <v>149723</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>130530</v>
+        <v>127761</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>174768</v>
+        <v>175206</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04349286372902627</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03791758939672377</v>
+        <v>0.03711304966473254</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05076816716923219</v>
+        <v>0.05089548864867884</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>506</v>
@@ -9409,19 +9409,19 @@
         <v>291874</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>265652</v>
+        <v>267027</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>316919</v>
+        <v>318463</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08028683389473718</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07307377570892713</v>
+        <v>0.07345216793120404</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08717606984778906</v>
+        <v>0.08760082649919822</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>691</v>
@@ -9430,19 +9430,19 @@
         <v>441597</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>409476</v>
+        <v>406847</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>478115</v>
+        <v>475778</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.06239128426749341</v>
+        <v>0.06239128426749343</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05785306612992388</v>
+        <v>0.05748155765726435</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06755075016379841</v>
+        <v>0.06722048483448954</v>
       </c>
     </row>
     <row r="31">
